--- a/files/filterByFrequencyDatas.xlsx
+++ b/files/filterByFrequencyDatas.xlsx
@@ -413,7 +413,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>용역 발주계획목록 번호</v>
+        <v>용역 발주계획목록</v>
       </c>
       <c r="B1" t="str">
         <v>업무</v>
